--- a/backend/common/primary_data/南区升学数据.xlsx
+++ b/backend/common/primary_data/南区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15780" firstSheet="5" activeTab="11"/>
+    <workbookView windowHeight="15840" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="聖保羅書院小學" sheetId="1" r:id="rId1"/>
@@ -1695,7 +1695,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>

--- a/backend/common/primary_data/南区升学数据.xlsx
+++ b/backend/common/primary_data/南区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840" firstSheet="5" activeTab="11"/>
+    <workbookView windowHeight="16640" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="聖保羅書院小學" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="81">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -109,6 +109,9 @@
     </r>
   </si>
   <si>
+    <t>聖伯多祿中學</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -121,6 +124,84 @@
     </r>
   </si>
   <si>
+    <t>高主教書院</t>
+  </si>
+  <si>
+    <t>嘉諾撒聖方濟各書院</t>
+  </si>
+  <si>
+    <t>聖類斯中學</t>
+  </si>
+  <si>
+    <t>梁式芝書院</t>
+  </si>
+  <si>
+    <t>香港真光書院</t>
+  </si>
+  <si>
+    <t>香港鄧鏡波書院</t>
+  </si>
+  <si>
+    <t>嘉諾撒培德書院</t>
+  </si>
+  <si>
+    <t>香港仔工業學校</t>
+  </si>
+  <si>
+    <t>炮台山循道衛理中學</t>
+  </si>
+  <si>
+    <t>香港華仁書院</t>
+  </si>
+  <si>
+    <t>聖公會鄧肇堅中學</t>
+  </si>
+  <si>
+    <t>香港真光中學</t>
+  </si>
+  <si>
+    <t>長沙灣天主教英文中學</t>
+  </si>
+  <si>
+    <t>聖公會呂明才中學</t>
+  </si>
+  <si>
+    <t>香港仔浸信會呂明才書院</t>
+  </si>
+  <si>
+    <t>迦密唐賓南紀念中學</t>
+  </si>
+  <si>
+    <t>新會商會陳白沙紀念中學</t>
+  </si>
+  <si>
+    <t>明愛莊月明中學</t>
+  </si>
+  <si>
+    <t>中華基金中學</t>
+  </si>
+  <si>
+    <t>東華三院陳兆民中學</t>
+  </si>
+  <si>
+    <t>屯門官立中學</t>
+  </si>
+  <si>
+    <t>廠商會中學</t>
+  </si>
+  <si>
+    <t>嘉諾撒聖心書院</t>
+  </si>
+  <si>
+    <t>聖保祿中學</t>
+  </si>
+  <si>
+    <t>中華基督教青年會中學</t>
+  </si>
+  <si>
+    <t>佛教黃鳳翎中學</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -169,39 +250,15 @@
     <t>香港國際學校</t>
   </si>
   <si>
-    <t>中華基金中學</t>
-  </si>
-  <si>
-    <t>聖公會呂明才中學</t>
-  </si>
-  <si>
     <t>德貞女子中學</t>
   </si>
   <si>
-    <t>新會商會陳白沙紀念中學</t>
-  </si>
-  <si>
     <t>培英中學</t>
   </si>
   <si>
-    <t>香港華仁書院</t>
-  </si>
-  <si>
-    <t>嘉諾撒聖心書院</t>
-  </si>
-  <si>
-    <t>聖公會鄧肇堅中學</t>
-  </si>
-  <si>
     <t>可立中學</t>
   </si>
   <si>
-    <t>香港仔浸信會呂明才書院</t>
-  </si>
-  <si>
-    <t>聖伯多祿中學</t>
-  </si>
-  <si>
     <t>聖士提反堂中學</t>
   </si>
   <si>
@@ -214,13 +271,7 @@
     <t>聖嘉勒女書院</t>
   </si>
   <si>
-    <t>聖類斯中學</t>
-  </si>
-  <si>
     <t>中華傳道會劉永生中學</t>
-  </si>
-  <si>
-    <t>香港真光書院</t>
   </si>
   <si>
     <t>文理書院(九龍)</t>
@@ -265,30 +316,18 @@
     <t>港大同學會書院</t>
   </si>
   <si>
-    <t>長沙灣天主教英文中學</t>
-  </si>
-  <si>
     <t>聖士提反書院</t>
   </si>
   <si>
-    <t>香港真光中學</t>
-  </si>
-  <si>
     <t>香港中國婦女會中學</t>
   </si>
   <si>
-    <t>聖保祿中學</t>
-  </si>
-  <si>
     <t>嘉諾撒聖家書院</t>
   </si>
   <si>
     <t>德雅中學</t>
   </si>
   <si>
-    <t>香港鄧鏡波書院</t>
-  </si>
-  <si>
     <t>金文泰中學</t>
   </si>
   <si>
@@ -301,7 +340,13 @@
     <t>基督教香港信義會心誠中學</t>
   </si>
   <si>
-    <t>香港仔工業學校</t>
+    <t>顯理中學</t>
+  </si>
+  <si>
+    <t>聖士提反女子中學</t>
+  </si>
+  <si>
+    <t>明愛馬鞍山中學</t>
   </si>
   <si>
     <t>一條龍學校，結龍中學是：智新書院</t>
@@ -317,7 +362,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -327,6 +372,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -691,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -709,6 +761,15 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFEAEAEA"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -842,155 +903,155 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1001,11 +1062,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1550,8 +1620,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="29.275" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="29.2788461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1596,8 +1666,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -1622,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1645,8 +1715,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -1671,12 +1741,12 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="E3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1694,15 +1764,15 @@
   <sheetPr codeName="聖公會置富始南小學"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="3" max="3" width="20.9916666666667" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="3" max="3" width="20.9903846153846" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.2" spans="1:5">
@@ -1724,192 +1794,192 @@
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>2025</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="15.2" spans="1:5">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="15.2" spans="1:5">
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="15.2" spans="1:5">
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="15.2" spans="1:5">
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" spans="1:5">
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="15.2" spans="1:5">
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="15.2" spans="1:5">
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="15.2" spans="1:5">
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="15.2" spans="1:5">
+      <c r="C11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="15.2" spans="1:5">
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="15.2" spans="1:5">
+      <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="15.2" spans="1:5">
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="15.2" spans="1:5">
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="15.2" spans="1:5">
+      <c r="C16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="15.2" spans="3:4">
+      <c r="C17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="15.2" spans="3:4">
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="15.2" spans="3:4">
+      <c r="C19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" ht="15.2" spans="3:4">
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" ht="15.2" spans="3:4">
+      <c r="C21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="15.2" spans="3:4">
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="15.2" spans="1:5">
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="15.2" spans="1:5">
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="15.2" spans="1:5">
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="15.2" spans="1:5">
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="15.2" spans="1:5">
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="15.2" spans="1:5">
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="15.2" spans="1:5">
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" ht="15.2" spans="1:5">
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="15.2" spans="1:5">
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="15.2" spans="1:5">
-      <c r="C14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="15.2" spans="1:5">
-      <c r="C15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" ht="15.2" spans="1:5">
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="15.2" spans="3:4">
-      <c r="C17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="15.2" spans="3:4">
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="15.2" spans="3:4">
-      <c r="C19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" ht="15.2" spans="3:4">
-      <c r="C20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" ht="15.2" spans="3:4">
-      <c r="C21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="15.2" spans="3:4">
-      <c r="C22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="D22" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="23" ht="15.2" spans="3:4">
-      <c r="C23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="15.2" spans="3:4">
-      <c r="C24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1933,8 +2003,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -1959,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1982,8 +2052,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.2" spans="1:5">
@@ -2005,13 +2075,13 @@
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2020,7 +2090,7 @@
     </row>
     <row r="3" ht="15.2" spans="1:5">
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -2028,7 +2098,7 @@
     </row>
     <row r="4" ht="15.2" spans="1:5">
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -2036,7 +2106,7 @@
     </row>
     <row r="5" ht="15.2" spans="1:5">
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -2044,7 +2114,7 @@
     </row>
     <row r="6" ht="15.2" spans="1:5">
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -2052,7 +2122,7 @@
     </row>
     <row r="7" ht="15.2" spans="1:5">
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2060,7 +2130,7 @@
     </row>
     <row r="8" ht="15.2" spans="1:5">
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2068,7 +2138,7 @@
     </row>
     <row r="9" ht="15.2" spans="1:5">
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -2076,7 +2146,7 @@
     </row>
     <row r="10" ht="15.2" spans="1:5">
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2084,7 +2154,7 @@
     </row>
     <row r="11" ht="15.2" spans="1:5">
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -2092,7 +2162,7 @@
     </row>
     <row r="12" ht="15.2" spans="1:5">
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -2100,7 +2170,7 @@
     </row>
     <row r="13" ht="15.2" spans="1:5">
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -2108,7 +2178,7 @@
     </row>
     <row r="14" ht="15.2" spans="1:5">
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -2116,7 +2186,7 @@
     </row>
     <row r="15" ht="15.2" spans="1:5">
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -2124,7 +2194,7 @@
     </row>
     <row r="16" ht="15.2" spans="1:5">
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -2132,7 +2202,7 @@
     </row>
     <row r="17" ht="15.2" spans="3:4">
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -2140,7 +2210,7 @@
     </row>
     <row r="18" ht="15.2" spans="3:4">
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -2148,7 +2218,7 @@
     </row>
     <row r="19" ht="15.2" spans="3:4">
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -2156,7 +2226,7 @@
     </row>
     <row r="20" ht="15.2" spans="3:4">
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2164,7 +2234,7 @@
     </row>
     <row r="21" ht="15.2" spans="3:4">
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2">
         <v>13</v>
@@ -2172,7 +2242,7 @@
     </row>
     <row r="22" ht="15.2" spans="3:4">
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2180,7 +2250,7 @@
     </row>
     <row r="23" ht="15.2" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -2188,7 +2258,7 @@
     </row>
     <row r="24" ht="15.2" spans="3:4">
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
@@ -2196,7 +2266,7 @@
     </row>
     <row r="25" ht="15.2" spans="3:4">
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -2204,7 +2274,7 @@
     </row>
     <row r="26" ht="15.2" spans="3:4">
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -2212,7 +2282,7 @@
     </row>
     <row r="27" ht="15.2" spans="3:4">
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
@@ -2220,7 +2290,7 @@
     </row>
     <row r="28" ht="15.2" spans="3:4">
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>21</v>
@@ -2228,7 +2298,7 @@
     </row>
     <row r="29" ht="15.2" spans="3:4">
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>17</v>
@@ -2236,7 +2306,7 @@
     </row>
     <row r="30" ht="15.2" spans="3:4">
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D30" s="2">
         <v>9</v>
@@ -2244,7 +2314,7 @@
     </row>
     <row r="31" ht="15.2" spans="3:4">
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -2252,7 +2322,7 @@
     </row>
     <row r="32" ht="15.2" spans="3:4">
       <c r="C32" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -2260,7 +2330,7 @@
     </row>
     <row r="33" ht="15.2" spans="3:4">
       <c r="C33" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
@@ -2268,7 +2338,7 @@
     </row>
     <row r="34" ht="15.2" spans="3:4">
       <c r="C34" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>7</v>
@@ -2276,7 +2346,7 @@
     </row>
     <row r="35" ht="15.2" spans="3:4">
       <c r="C35" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -2302,8 +2372,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.2" spans="1:5">
@@ -2478,13 +2548,14 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="3" max="3" width="29.4903846153846" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.2" spans="1:5">
@@ -2508,146 +2579,223 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15.2" spans="1:5">
-      <c r="C3" s="2"/>
+    <row r="3" ht="17.6" spans="1:5">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" ht="15.2" spans="1:5">
-      <c r="C4" s="2"/>
+    <row r="4" ht="17.6" spans="1:5">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" ht="15.2" spans="1:5">
-      <c r="C5" s="2"/>
+    <row r="5" ht="17.6" spans="1:5">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" ht="15.2" spans="1:5">
-      <c r="C6" s="2"/>
+    <row r="6" ht="17.6" spans="1:5">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" ht="15.2" spans="1:5">
-      <c r="C7" s="2"/>
+    <row r="7" ht="17.6" spans="1:5">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" ht="15.2" spans="1:5">
-      <c r="C8" s="2"/>
+    <row r="8" ht="17.6" spans="1:5">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" ht="15.2" spans="1:5">
-      <c r="C9" s="2"/>
+    <row r="9" ht="17.6" spans="1:5">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" ht="15.2" spans="1:5">
-      <c r="C10" s="2"/>
+    <row r="10" ht="17.6" spans="1:5">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" ht="15.2" spans="1:5">
-      <c r="C11" s="2"/>
+    <row r="11" ht="17.6" spans="1:5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" ht="15.2" spans="1:5">
-      <c r="C12" s="2"/>
+    <row r="12" ht="17.6" spans="1:5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" ht="15.2" spans="1:5">
-      <c r="C13" s="2"/>
+    <row r="13" ht="17.6" spans="1:5">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="15.2" spans="1:5">
-      <c r="C14" s="2"/>
+    <row r="14" ht="17.6" spans="1:5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="15.2" spans="1:5">
-      <c r="C15" s="2"/>
+    <row r="15" ht="17.6" spans="1:5">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="15.2" spans="1:5">
-      <c r="C16" s="2"/>
+    <row r="16" ht="17.6" spans="1:5">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="15.2" spans="3:4">
-      <c r="C17" s="2"/>
+    <row r="17" ht="17.6" spans="2:4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="15.2" spans="3:4">
-      <c r="C18" s="2"/>
+    <row r="18" ht="17.6" spans="2:4">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="15.2" spans="3:4">
-      <c r="C19" s="2"/>
+    <row r="19" ht="17.6" spans="2:4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="15.2" spans="3:4">
-      <c r="C20" s="2"/>
+    <row r="20" ht="17.6" spans="2:4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="15.2" spans="3:4">
-      <c r="C21" s="2"/>
+    <row r="21" ht="17.6" spans="2:4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="15.2" spans="3:4">
-      <c r="C22" s="2"/>
+    <row r="22" ht="17.6" spans="2:4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="15.2" spans="3:4">
-      <c r="C23" s="2"/>
+    <row r="23" ht="17.6" spans="2:4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="15.2" spans="3:4">
+    <row r="24" ht="15.2" spans="2:4">
+      <c r="B24" s="4"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="15.2" spans="3:4">
+    <row r="25" ht="15.2" spans="2:4">
+      <c r="B25" s="4"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="15.2" spans="3:4">
+    <row r="26" ht="15.2" spans="2:4">
+      <c r="B26" s="4"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="15.2" spans="3:4">
+    <row r="27" ht="15.2" spans="2:4">
+      <c r="B27" s="4"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="15.2" spans="3:4">
+    <row r="28" ht="15.2" spans="2:4">
+      <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="15.2" spans="3:4">
+    <row r="29" ht="15.2" spans="2:4">
+      <c r="B29" s="4"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="15.2" spans="3:4">
+    <row r="30" ht="15.2" spans="2:4">
+      <c r="B30" s="4"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="15.2" spans="3:4">
+    <row r="31" ht="15.2" spans="2:4">
+      <c r="B31" s="4"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="15.2" spans="3:4">
+    <row r="32" ht="15.2" spans="2:4">
+      <c r="B32" s="4"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="15.2" spans="3:4">
+    <row r="33" ht="15.2" spans="2:4">
+      <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="15.2" spans="3:4">
+    <row r="34" ht="15.2" spans="2:4">
+      <c r="B34" s="4"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="15.2" spans="3:4">
+    <row r="35" ht="15.2" spans="2:4">
+      <c r="B35" s="4"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B35"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2664,8 +2812,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.2" spans="1:5">
@@ -2845,8 +2993,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.2" spans="1:5">
@@ -2873,7 +3021,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:5">
@@ -3030,8 +3178,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="29.275" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="29.2788461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3076,7 +3224,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -3121,8 +3269,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="20.9916666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="20.9903846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -3167,8 +3315,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -3213,8 +3361,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -3259,8 +3407,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -3305,9 +3453,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="3" max="3" width="15.6" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="3" max="3" width="15.5961538461538" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -3353,16 +3501,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="聖伯多祿天主教小學"/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="5" max="5" width="37.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="20.6634615384615" customWidth="1"/>
+    <col min="3" max="3" width="41.8269230769231" customWidth="1"/>
+    <col min="5" max="5" width="37.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -3386,11 +3535,257 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="B15" s="8"/>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:3">
+      <c r="B21" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="22" customHeight="1" spans="2:3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:3">
+      <c r="B39" s="8"/>
+      <c r="C39" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:3">
+      <c r="B40" s="8"/>
+      <c r="C40" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:3">
+      <c r="B41" s="8"/>
+      <c r="C41" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="B21:B41"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.aspcps.edu.hk/%E5%8D%87%E4%B8%AD%E8%B3%87%E8%A8%8A"/>
   </hyperlinks>
